--- a/data/helpdoc/DND/A_速查词条整合.xlsx
+++ b/data/helpdoc/DND/A_速查词条整合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300" activeTab="2"/>
+    <workbookView windowWidth="18530" windowHeight="7270" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="其他种族" sheetId="1" r:id="rId1"/>
@@ -4062,14 +4062,14 @@
       <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.9074074074074" customWidth="1"/>
-    <col min="2" max="2" width="14.2685185185185" customWidth="1"/>
+    <col min="1" max="1" width="20.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="14.2727272727273" customWidth="1"/>
     <col min="3" max="3" width="103.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="16" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="17" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="18" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="19" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="20" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="21" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="22" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="23" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="24" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="25" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="26" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>55</v>
       </c>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="27" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="28" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>59</v>
       </c>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="29" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
@@ -4381,121 +4381,121 @@
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="30" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="31" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="32" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="33" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="34" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="35" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="36" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="37" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="38" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="39" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="40" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="41" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="42" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="43" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="44" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="45" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="46" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="47" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="48" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="49" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4519,8 +4519,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29.4444444444444" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.8888888888889" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.4454545454545" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.8909090909091" style="5" customWidth="1"/>
     <col min="3" max="3" width="74" style="5" customWidth="1"/>
     <col min="4" max="16384" width="9" style="5"/>
   </cols>
@@ -4727,14 +4727,14 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29.3333333333333" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.3363636363636" style="5" customWidth="1"/>
     <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="60.3333333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="60.3363636363636" style="5" customWidth="1"/>
     <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -5541,14 +5541,14 @@
       <selection activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="12.3333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.2222222222222" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.1090909090909" customWidth="1"/>
+    <col min="2" max="2" width="12.3363636363636" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.2181818181818" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>254</v>
       </c>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>258</v>
       </c>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>261</v>
       </c>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>264</v>
       </c>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>268</v>
       </c>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>271</v>
       </c>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>274</v>
       </c>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>277</v>
       </c>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>280</v>
       </c>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>283</v>
       </c>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>286</v>
       </c>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>289</v>
       </c>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>292</v>
       </c>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>295</v>
       </c>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="16" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>298</v>
       </c>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="17" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>301</v>
       </c>
@@ -5808,7 +5808,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="18" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>304</v>
       </c>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="19" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>308</v>
       </c>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="20" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>312</v>
       </c>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="21" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>315</v>
       </c>
@@ -5868,13 +5868,13 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="22" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="23" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>

--- a/data/helpdoc/DND/A_速查词条整合.xlsx
+++ b/data/helpdoc/DND/A_速查词条整合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7270" activeTab="2"/>
+    <workbookView windowWidth="18530" windowHeight="7270" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="其他种族" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="321">
   <si>
     <t>Key</t>
   </si>
@@ -2892,7 +2892,7 @@
     <t>PHB</t>
   </si>
   <si>
-    <t>Player’s HandBook 玩家手册</t>
+    <t>Player's HandBook 玩家手册</t>
   </si>
   <si>
     <t>核心书目</t>
@@ -2904,7 +2904,7 @@
     <t>DMG</t>
   </si>
   <si>
-    <t>Dungeon Master’s Guide 城主指南</t>
+    <t>Dungeon Master's Guide 城主指南</t>
   </si>
   <si>
     <t>怪物图鉴</t>
@@ -2922,7 +2922,7 @@
     <t>SCAG</t>
   </si>
   <si>
-    <t>Sword Coast Adventurer’s Guide 剑湾冒险者指南</t>
+    <t>Sword Coast Adventurer's Guide 剑湾冒险者指南</t>
   </si>
   <si>
     <t>扩展</t>
@@ -2934,7 +2934,7 @@
     <t>VGM</t>
   </si>
   <si>
-    <t>Volo’s Guide to Monsters 瓦罗怪物指南</t>
+    <t>Volo's Guide to Monsters 瓦罗怪物指南</t>
   </si>
   <si>
     <t>珊娜萨的万事指南</t>
@@ -2943,7 +2943,7 @@
     <t>XGE</t>
   </si>
   <si>
-    <t>Xanathar’s Guide to Everything 珊娜萨万事的指南</t>
+    <t>Xanathar's Guide to Everything 珊娜萨万事的指南</t>
   </si>
   <si>
     <t>魔邓肯的众敌卷册</t>
@@ -2952,7 +2952,7 @@
     <t>MTF</t>
   </si>
   <si>
-    <t>Mordenkainen’s Tome of Foes 魔邓肯的众敌卷册</t>
+    <t>Mordenkainen's Tome of Foes 魔邓肯的众敌卷册</t>
   </si>
   <si>
     <t>拉尼卡公会长指南</t>
@@ -2979,7 +2979,7 @@
     <t>EGW/EGTW</t>
   </si>
   <si>
-    <t>Explorer’s Guide to Wildemount 荒洲探险家指南</t>
+    <t>Explorer's Guide to Wildemount 荒洲探险家指南</t>
   </si>
   <si>
     <t>艾奎兹玄有限责任公司</t>
@@ -3006,7 +3006,7 @@
     <t>TCE</t>
   </si>
   <si>
-    <t>Tasha’s Cauldron of Everything 塔莎的万象坩埚</t>
+    <t>Tasha's Cauldron of Everything 塔莎的万象坩埚</t>
   </si>
   <si>
     <t>范·里希腾的鸦阁指南</t>
@@ -3069,7 +3069,7 @@
     <t>AAG</t>
   </si>
   <si>
-    <t>Astral Adventurer’s Guide 星界冒险者指南</t>
+    <t>Astral Adventurer's Guide 星界冒险者指南</t>
   </si>
   <si>
     <t>布布的星界怪兽展</t>
@@ -3078,7 +3078,16 @@
     <t>BAM</t>
   </si>
   <si>
-    <t>Boo’s Astral Menagerie 布布的星界怪兽展</t>
+    <t>Boo's Astral Menagerie 布布的星界怪兽展</t>
+  </si>
+  <si>
+    <t>魔邓肯出品：多元宇宙的怪物</t>
+  </si>
+  <si>
+    <t>MOM/MOTM</t>
+  </si>
+  <si>
+    <t>Monsters of the Multiverse 魔邓肯出品：多元宇宙的怪物</t>
   </si>
 </sst>
 </file>
@@ -4726,7 +4735,7 @@
   <sheetPr/>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5537,14 +5546,14 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="$A14:$XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.1090909090909" customWidth="1"/>
-    <col min="2" max="2" width="12.3363636363636" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="21.7272727272727" style="2" customWidth="1"/>
     <col min="3" max="3" width="50.2181818181818" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5869,9 +5878,18 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">

--- a/data/helpdoc/DND/A_速查词条整合.xlsx
+++ b/data/helpdoc/DND/A_速查词条整合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7270" activeTab="3"/>
+    <workbookView windowWidth="18530" windowHeight="7270" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="其他种族" sheetId="1" r:id="rId1"/>
@@ -3706,7 +3706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3719,6 +3719,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4735,8 +4738,8 @@
   <sheetPr/>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
@@ -4792,7 +4795,7 @@
         <v>106</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F4" s="4"/>
@@ -5546,7 +5549,7 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/data/helpdoc/DND/A_速查词条整合.xlsx
+++ b/data/helpdoc/DND/A_速查词条整合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7270" activeTab="2"/>
+    <workbookView windowWidth="14400" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="其他种族" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="403">
   <si>
     <t>Key</t>
   </si>
@@ -733,7 +733,9 @@
 狂热者道途 Path of the Zealot
 TCE:
 野兽道途 Path of the Beast
-狂野魔法道途 Path of Wild Magic</t>
+狂野魔法道途 Path of Wild Magic
+BGOG:
+巨人道途 Path of the Giant</t>
   </si>
   <si>
     <t>吟游诗人学院</t>
@@ -973,7 +975,36 @@
 书士会  Order of Scribes</t>
   </si>
   <si>
-    <t>奇械师:0环戏法</t>
+    <t>奇械师戏法</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奇械师:戏法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奇械师:0环戏法</t>
+    </r>
   </si>
   <si>
     <t>酸液飞溅（咒法）
@@ -1002,7 +1033,36 @@
 剑刃爆发（咒法）</t>
   </si>
   <si>
-    <t>奇械师:1环</t>
+    <t>奇械师1环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奇械师:一环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奇械师:1环</t>
+    </r>
   </si>
   <si>
     <t>警报术（防护，仪式）
@@ -1027,7 +1087,36 @@
 塔莎酸蚀酿（塑能）</t>
   </si>
   <si>
-    <t>奇械师:2环</t>
+    <t>奇械师2环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奇械师:二环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奇械师:2环</t>
+    </r>
   </si>
   <si>
     <t>援助术（防护）
@@ -1059,7 +1148,36 @@
 气泡术（咒法）</t>
   </si>
   <si>
-    <t>奇械师:3环</t>
+    <t>奇械师3环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奇械师:三环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奇械师:3环</t>
+    </r>
   </si>
   <si>
     <t>闪现术（变化）
@@ -1082,7 +1200,36 @@
 阿莎德隆奔行（变化）</t>
   </si>
   <si>
-    <t>奇械师:4环</t>
+    <t>奇械师4环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奇械师:四环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奇械师:4环</t>
+    </r>
   </si>
   <si>
     <t>秘法眼（预言）
@@ -1100,7 +1247,36 @@
 构装体召唤术（咒法）</t>
   </si>
   <si>
-    <t>奇械师:5环</t>
+    <t>奇械师5环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奇械师:五环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奇械师:5环</t>
+    </r>
   </si>
   <si>
     <t>活化物件（变化）
@@ -1115,7 +1291,36 @@
 创造法驱魔舵（变化）</t>
   </si>
   <si>
-    <t>吟游诗人:0环戏法</t>
+    <t>吟游诗人戏法</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:戏法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:0环戏法</t>
+    </r>
   </si>
   <si>
     <t>剑刃防护（防护）
@@ -1133,7 +1338,36 @@
 鸣雷破（塑能）</t>
   </si>
   <si>
-    <t>吟游诗人:1环</t>
+    <t>吟游诗人1环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:一环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:1环</t>
+    </r>
   </si>
   <si>
     <t>化兽为友（附魔）
@@ -1168,7 +1402,36 @@
 银光锐语（附魔）</t>
   </si>
   <si>
-    <t>吟游诗人:2环</t>
+    <t>吟游诗人2环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:二环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:2环</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">动物信使（附魔，仪式）
@@ -1211,7 +1474,36 @@
 </t>
   </si>
   <si>
-    <t>吟游诗人:3环</t>
+    <t>吟游诗人3环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:三环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:3环</t>
+    </r>
   </si>
   <si>
     <t>降咒（死灵）
@@ -1242,7 +1534,36 @@
 缓慢术（变化）</t>
   </si>
   <si>
-    <t>吟游诗人:4环</t>
+    <t>吟游诗人4环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:四环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:4环</t>
+    </r>
   </si>
   <si>
     <t>强迫术（附魔）
@@ -1261,7 +1582,36 @@
 劳洛希姆心灵长枪（附魔）</t>
   </si>
   <si>
-    <t>吟游诗人:5环</t>
+    <t>吟游诗人5环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:五环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:5环</t>
+    </r>
   </si>
   <si>
     <t>活化物件（变化）
@@ -1287,7 +1637,36 @@
 拉瑞心灵联结（预言，仪式）</t>
   </si>
   <si>
-    <t>吟游诗人:6环</t>
+    <t>吟游诗人6环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:六环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:6环</t>
+    </r>
   </si>
   <si>
     <t>摄心目光（死灵）
@@ -1301,7 +1680,36 @@
 英雄宴（咒法）</t>
   </si>
   <si>
-    <t>吟游诗人:7环</t>
+    <t>吟游诗人7环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:七环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:7环</t>
+    </r>
   </si>
   <si>
     <t>以太化（变化）
@@ -1319,7 +1727,36 @@
 虹光喷射（塑能）</t>
   </si>
   <si>
-    <t>吟游诗人:8环</t>
+    <t>吟游诗人8环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:八环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:8环</t>
+    </r>
   </si>
   <si>
     <t>支配怪物（附魔）
@@ -1331,7 +1768,36 @@
 嫌恶/关怀术（附魔）</t>
   </si>
   <si>
-    <t>吟游诗人:9环</t>
+    <t>吟游诗人9环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:九环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吟游诗人:9环</t>
+    </r>
   </si>
   <si>
     <t>预警术（预言）
@@ -1345,7 +1811,36 @@
 虹光法墙（防护）</t>
   </si>
   <si>
-    <t>牧师:0环戏法</t>
+    <t>牧师戏法</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:戏法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:0环戏法</t>
+    </r>
   </si>
   <si>
     <t>神导术（预言）
@@ -1360,7 +1855,36 @@
 光耀祷词（塑能）</t>
   </si>
   <si>
-    <t>牧师:1环</t>
+    <t>牧师1环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:一环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:1环</t>
+    </r>
   </si>
   <si>
     <t>灾祸术（附魔）
@@ -1382,7 +1906,36 @@
 典礼术（防护，仪式）</t>
   </si>
   <si>
-    <t>牧师:2环</t>
+    <t>牧师2环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:二环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:2环</t>
+    </r>
   </si>
   <si>
     <t>援助术（防护）
@@ -1406,7 +1959,36 @@
 借鉴才学（预言）</t>
   </si>
   <si>
-    <t>牧师:3环</t>
+    <t>牧师3环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:三环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:3环</t>
+    </r>
   </si>
   <si>
     <t>操纵死尸（死灵）
@@ -1440,7 +2022,36 @@
 魂灵环绕（死灵）</t>
   </si>
   <si>
-    <t>牧师:4环</t>
+    <t>牧师4环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:四环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:4环</t>
+    </r>
   </si>
   <si>
     <t>放逐术（防护）
@@ -1456,7 +2067,36 @@
 净化灵光（防护）</t>
   </si>
   <si>
-    <t>牧师:5环</t>
+    <t>牧师5环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:五环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:5环</t>
+    </r>
   </si>
   <si>
     <t>通神术（预言，仪式）
@@ -1479,7 +2119,36 @@
 天界生物召唤术（咒法）</t>
   </si>
   <si>
-    <t>牧师:6环</t>
+    <t>牧师6环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:六环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:6环</t>
+    </r>
   </si>
   <si>
     <t>剑刃护壁（塑能）
@@ -1496,7 +2165,36 @@
 阳炎射线（塑能）</t>
   </si>
   <si>
-    <t>牧师:7环</t>
+    <t>牧师7环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:七环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:7环</t>
+    </r>
   </si>
   <si>
     <t>召唤天界生物（咒法）
@@ -1511,7 +2209,36 @@
 神庙术（咒法）</t>
   </si>
   <si>
-    <t>牧师:8环</t>
+    <t>牧师8环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:八环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:8环</t>
+    </r>
   </si>
   <si>
     <t>反魔法力场（防护）
@@ -1522,7 +2249,36 @@
 阳炎爆（塑能）</t>
   </si>
   <si>
-    <t>牧师:9环</t>
+    <t>牧师9环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:九环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牧师:9环</t>
+    </r>
   </si>
   <si>
     <t>星界投影（死灵）
@@ -1533,7 +2289,36 @@
 律令医疗（塑能）</t>
   </si>
   <si>
-    <t>德鲁伊:0环戏法</t>
+    <t>德鲁伊戏法</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:戏法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:0环戏法</t>
+    </r>
   </si>
   <si>
     <t>德鲁伊伎俩（变化）
@@ -1557,7 +2342,36 @@
 鸣雷破（塑能）</t>
   </si>
   <si>
-    <t>德鲁伊:1环</t>
+    <t>德鲁伊1环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:一环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:1环</t>
+    </r>
   </si>
   <si>
     <t>化兽为友（附魔）
@@ -1586,7 +2400,36 @@
 防护善恶（防护）</t>
   </si>
   <si>
-    <t>德鲁伊:2环</t>
+    <t>德鲁伊2环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:二环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:2环</t>
+    </r>
   </si>
   <si>
     <t>动物信使（附魔，仪式）
@@ -1624,7 +2467,36 @@
 气泡术（咒法）</t>
   </si>
   <si>
-    <t>德鲁伊:3环</t>
+    <t>德鲁伊3环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:三环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:3环</t>
+    </r>
   </si>
   <si>
     <t>召雷术（咒法）
@@ -1652,7 +2524,36 @@
 精类召唤术（咒法）</t>
   </si>
   <si>
-    <t>德鲁伊:4环</t>
+    <t>德鲁伊4环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:四环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:4环</t>
+    </r>
   </si>
   <si>
     <t>枯萎术（死灵）
@@ -1682,7 +2583,36 @@
 元素召唤术（咒法）</t>
   </si>
   <si>
-    <t>德鲁伊:5环</t>
+    <t>德鲁伊5环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:五环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:5环</t>
+    </r>
   </si>
   <si>
     <t>防活物护罩（防护）
@@ -1710,7 +2640,36 @@
 龙类灵魄召唤术（咒法）</t>
   </si>
   <si>
-    <t>德鲁伊:6环</t>
+    <t>德鲁伊6环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:六环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:6环</t>
+    </r>
   </si>
   <si>
     <t>召唤精类生物（咒法）
@@ -1734,7 +2693,36 @@
 石化术（变化）</t>
   </si>
   <si>
-    <t>德鲁伊:7环</t>
+    <t>德鲁伊7环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:七环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:7环</t>
+    </r>
   </si>
   <si>
     <t>火焰风暴（塑能）
@@ -1750,7 +2738,36 @@
 龙类变形</t>
   </si>
   <si>
-    <t>德鲁伊:8环</t>
+    <t>德鲁伊8环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:八环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:8环</t>
+    </r>
   </si>
   <si>
     <t>动物形态（变化）
@@ -1764,7 +2781,36 @@
 焚云术（咒法）</t>
   </si>
   <si>
-    <t>德鲁伊:9环</t>
+    <t>德鲁伊9环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:九环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德鲁伊:9环</t>
+    </r>
   </si>
   <si>
     <t>预警术（预言）
@@ -1773,7 +2819,36 @@
 完全复生术（死灵）</t>
   </si>
   <si>
-    <t>圣武士:1环</t>
+    <t>圣武士1环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圣武士:一环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圣武士:1环</t>
+    </r>
   </si>
   <si>
     <t>祝福术（附魔）
@@ -1795,7 +2870,36 @@
 典礼术（防护）</t>
   </si>
   <si>
-    <t>圣武士:2环</t>
+    <t>圣武士2环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圣武士:二环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圣武士:2环</t>
+    </r>
   </si>
   <si>
     <t>援助术（防护）
@@ -1812,7 +2916,36 @@
 守护之链（防护）</t>
   </si>
   <si>
-    <t>圣武士:3环</t>
+    <t>圣武士3环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圣武士:三环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圣武士:3环</t>
+    </r>
   </si>
   <si>
     <t>活力灵光（塑能）
@@ -1829,7 +2962,36 @@
 魂灵环绕（死灵）</t>
   </si>
   <si>
-    <t>圣武士:4环</t>
+    <t>圣武士4环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圣武士:四环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圣武士:4环</t>
+    </r>
   </si>
   <si>
     <t>生命灵光（防护）
@@ -1842,7 +3004,36 @@
 获得高等坐骑（咒法）</t>
   </si>
   <si>
-    <t>圣武士:5环</t>
+    <t>圣武士5环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圣武士:五环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圣武士:5环</t>
+    </r>
   </si>
   <si>
     <t>放逐斩（防护）
@@ -1857,7 +3048,36 @@
 天界生物召唤术（咒法）</t>
   </si>
   <si>
-    <t>游侠:1环</t>
+    <t>游侠1环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游侠:一环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游侠:1环</t>
+    </r>
   </si>
   <si>
     <t>警报术（防护）
@@ -1883,7 +3103,36 @@
 炽焰斩（塑能）</t>
   </si>
   <si>
-    <t>游侠:2环</t>
+    <t>游侠2环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游侠:二环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游侠:2环</t>
+    </r>
   </si>
   <si>
     <t>动物信使（附魔）
@@ -1911,7 +3160,36 @@
 气泡术（咒法）</t>
   </si>
   <si>
-    <t>游侠:3环</t>
+    <t>游侠3环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游侠:三环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游侠:3环</t>
+    </r>
   </si>
   <si>
     <t>召唤动物（咒法）
@@ -1936,7 +3214,36 @@
 阿莎德隆奔行（变化）</t>
   </si>
   <si>
-    <t>游侠:4环</t>
+    <t>游侠4环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游侠:四环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游侠:4环</t>
+    </r>
   </si>
   <si>
     <t>召唤林地之精（咒法）
@@ -1951,7 +3258,36 @@
 元素召唤术（咒法）</t>
   </si>
   <si>
-    <t>游侠:5环</t>
+    <t>游侠5环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游侠:五环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游侠:5环</t>
+    </r>
   </si>
   <si>
     <t>问道自然（预言）
@@ -1965,7 +3301,36 @@
 高等复原术（防护）</t>
   </si>
   <si>
-    <t>术士:0环戏法</t>
+    <t>术士戏法</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:戏法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:0环戏法</t>
+    </r>
   </si>
   <si>
     <t>酸液飞溅（咒法）
@@ -2001,7 +3366,36 @@
 剑刃爆发（咒法）</t>
   </si>
   <si>
-    <t>术士:1环</t>
+    <t>术士1环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:一环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:1环</t>
+    </r>
   </si>
   <si>
     <t>燃烧之手（塑能）
@@ -2039,7 +3433,36 @@
 银光锐语（附魔）</t>
   </si>
   <si>
-    <t>术士:2环</t>
+    <t>术士2环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:二环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:2环</t>
+    </r>
   </si>
   <si>
     <t>变身术（变化）
@@ -2090,10 +3513,41 @@
 涡旋翘曲（咒法）
 靡与华（死灵）
 AGG:
-气泡术（咒法）</t>
-  </si>
-  <si>
-    <t>术士:3环</t>
+气泡术（咒法）
+SO:
+侦测扭曲（预言）</t>
+  </si>
+  <si>
+    <t>术士3环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:三环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:3环</t>
+    </r>
   </si>
   <si>
     <t>闪现术（变化）
@@ -2134,7 +3588,36 @@
 阿莎德隆奔行（变化）</t>
   </si>
   <si>
-    <t>术士:4环</t>
+    <t>术士4环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:四环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:4环</t>
+    </r>
   </si>
   <si>
     <t>放逐术（防护）
@@ -2156,10 +3639,41 @@
 TCE:
 火焰护盾（塑能）
 FTD:
-劳洛希姆心灵长枪（附魔）</t>
-  </si>
-  <si>
-    <t>术士:5环</t>
+劳洛希姆心灵长枪（附魔）
+SO:
+界门封锁（防护）</t>
+  </si>
+  <si>
+    <t>术士5环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:五环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:5环</t>
+    </r>
   </si>
   <si>
     <t>活化物件（变化）
@@ -2187,7 +3701,36 @@
 龙类灵魄召唤术（咒法）</t>
   </si>
   <si>
-    <t>术士:6环</t>
+    <t>术士6环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:六环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:6环</t>
+    </r>
   </si>
   <si>
     <t>秘法门（咒法）
@@ -2215,7 +3758,36 @@
 菲兹班铂金盾（防护）</t>
   </si>
   <si>
-    <t>术士:7环</t>
+    <t>术士7环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:七环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:7环</t>
+    </r>
   </si>
   <si>
     <t>延迟爆裂火球（塑能）
@@ -2236,7 +3808,36 @@
 龙类变形</t>
   </si>
   <si>
-    <t>术士:8环</t>
+    <t>术士8环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:八环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:8环</t>
+    </r>
   </si>
   <si>
     <t>支配怪物（附魔）
@@ -2250,7 +3851,36 @@
 创造半位面（咒法）</t>
   </si>
   <si>
-    <t>术士:9环</t>
+    <t>术士9环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:九环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>术士:9环</t>
+    </r>
   </si>
   <si>
     <t>异界之门（咒法）
@@ -2265,7 +3895,36 @@
 灾厄之刃（咒法）</t>
   </si>
   <si>
-    <t>邪术师:0环戏法</t>
+    <t>邪术师戏法</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:戏法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:0环戏法</t>
+    </r>
   </si>
   <si>
     <t>剑刃防护（防护）
@@ -2292,7 +3951,36 @@
 剑刃爆发（咒法）</t>
   </si>
   <si>
-    <t>邪术师:1环</t>
+    <t>邪术师1环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:一环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:1环</t>
+    </r>
   </si>
   <si>
     <t>艾嘉西斯之铠（防护）
@@ -2312,7 +4000,36 @@
 扭曲价值（附魔）</t>
   </si>
   <si>
-    <t>邪术师:2环</t>
+    <t>邪术师2环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:二环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:2环</t>
+    </r>
   </si>
   <si>
     <t>匕首之云（咒法）
@@ -2332,10 +4049,41 @@
 心灵尖刺（预言）
 幽影刃（幻术）
 SCC:
-借鉴才学（预言）</t>
-  </si>
-  <si>
-    <t>邪术师:3环</t>
+借鉴才学（预言）
+SO:
+侦测扭曲（预言）</t>
+  </si>
+  <si>
+    <t>邪术师3环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:三环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:3环</t>
+    </r>
   </si>
   <si>
     <t>法术反制（防护）
@@ -2364,7 +4112,36 @@
 不死生物召唤术（死灵）</t>
   </si>
   <si>
-    <t>邪术师:4环</t>
+    <t>邪术师4环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:四环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:4环</t>
+    </r>
   </si>
   <si>
     <t>放逐术（防护）
@@ -2380,10 +4157,41 @@
 TCE:
 异怪召唤术（咒法）
 FTD:
-劳洛希姆心灵长枪（附魔）</t>
-  </si>
-  <si>
-    <t>邪术师:5环</t>
+劳洛希姆心灵长枪（附魔）
+SO:
+界门封锁（防护）</t>
+  </si>
+  <si>
+    <t>邪术师5环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:五环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:5环</t>
+    </r>
   </si>
   <si>
     <t>异界探知（预言）
@@ -2404,7 +4212,36 @@
 传送法阵（咒法）</t>
   </si>
   <si>
-    <t>邪术师:6环</t>
+    <t>邪术师6环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:六环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:6环</t>
+    </r>
   </si>
   <si>
     <t>秘法门（咒法）
@@ -2428,7 +4265,36 @@
 塔莎超凡形态（变化）</t>
   </si>
   <si>
-    <t>邪术师:7环</t>
+    <t>邪术师7环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:七环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:7环</t>
+    </r>
   </si>
   <si>
     <t>以太化（变化）
@@ -2442,7 +4308,36 @@
 蓝纱一梦（咒法）</t>
   </si>
   <si>
-    <t>邪术师:8环</t>
+    <t>邪术师8环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:八环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:8环</t>
+    </r>
   </si>
   <si>
     <t>创造半位面（咒法）
@@ -2454,7 +4349,36 @@
 疯狂之暗（塑能）</t>
   </si>
   <si>
-    <t>邪术师:9环</t>
+    <t>邪术师9环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:九环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邪术师:9环</t>
+    </r>
   </si>
   <si>
     <t>星界投影（死灵）
@@ -2470,7 +4394,36 @@
 怪影杀手（幻术）</t>
   </si>
   <si>
-    <t>法师:0环戏法</t>
+    <t>法师戏法</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:戏法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:0环戏法</t>
+    </r>
   </si>
   <si>
     <t>酸液飞溅（咒法）
@@ -2507,7 +4460,36 @@
 剑刃爆发（咒法）</t>
   </si>
   <si>
-    <t>法师:1环</t>
+    <t>法师1环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:一环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:1环</t>
+    </r>
   </si>
   <si>
     <t>警报术（防护，仪式）
@@ -2556,7 +4538,36 @@
 银光锐语（附魔）</t>
   </si>
   <si>
-    <t>法师:2环</t>
+    <t>法师2环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:二环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:2环</t>
+    </r>
   </si>
   <si>
     <t>变身术（变化）
@@ -2621,10 +4632,41 @@
 涡旋翘曲（咒法）
 靡与华（死灵）
 AGG:
-气泡术（咒法）</t>
-  </si>
-  <si>
-    <t>法师:3环</t>
+气泡术（咒法）
+SO:
+侦测扭曲（预言）</t>
+  </si>
+  <si>
+    <t>法师3环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:三环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:3环</t>
+    </r>
   </si>
   <si>
     <t>操纵死尸（死灵）
@@ -2683,7 +4725,36 @@
 阿莎德隆奔行（变化）</t>
   </si>
   <si>
-    <t>法师:4环</t>
+    <t>法师4环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:四环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:4环</t>
+    </r>
   </si>
   <si>
     <t>秘法眼（预言）
@@ -2723,10 +4794,41 @@
 构装体召唤术（咒法）
 元素召唤术（咒法）
 FTD:
-劳洛希姆心灵长枪（附魔）</t>
-  </si>
-  <si>
-    <t>法师:5环</t>
+劳洛希姆心灵长枪（附魔）
+SO:
+界门封锁（防护）</t>
+  </si>
+  <si>
+    <t>法师5环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:五环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:5环</t>
+    </r>
   </si>
   <si>
     <t>活化物件（变化）
@@ -2772,7 +4874,36 @@
 创造法驱魔舵（变化）</t>
   </si>
   <si>
-    <t>法师:6环</t>
+    <t>法师6环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:六环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:6环</t>
+    </r>
   </si>
   <si>
     <t>秘法门（咒法）
@@ -2812,7 +4943,36 @@
 菲兹班铂金盾（防护）</t>
   </si>
   <si>
-    <t>法师:7环</t>
+    <t>法师7环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:七环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:7环</t>
+    </r>
   </si>
   <si>
     <t>延迟爆裂火球（塑能）
@@ -2840,7 +5000,36 @@
 龙类变形</t>
   </si>
   <si>
-    <t>法师:8环</t>
+    <t>法师8环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:八环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:8环</t>
+    </r>
   </si>
   <si>
     <t>反魔法力场（防护）
@@ -2863,7 +5052,36 @@
 坚固堡垒（咒法）</t>
   </si>
   <si>
-    <t>法师:9环</t>
+    <t>法师9环</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:九环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法师:9环</t>
+    </r>
   </si>
   <si>
     <t>星界投影（死灵）
@@ -3018,14 +5236,13 @@
     <t>Van Richten's Guide to Ravenloft 范·里希腾的鸦阁指南</t>
   </si>
   <si>
-    <t>菲兹班的巨龙宝库</t>
+    <t>费资本的巨龙宝库</t>
   </si>
   <si>
     <t>FTD</t>
   </si>
   <si>
-    <t xml:space="preserve">Fizban's Treasury of Dragons 菲兹班的巨龙宝库
- </t>
+    <t>Fizban's Treasury of Dragons 费资本的巨龙宝库</t>
   </si>
   <si>
     <t>丝翠海文：混沌研习</t>
@@ -3088,19 +5305,37 @@
   </si>
   <si>
     <t>Monsters of the Multiverse 魔邓肯出品：多元宇宙的怪物</t>
+  </si>
+  <si>
+    <t>毕格比巨献：巨人之荣耀</t>
+  </si>
+  <si>
+    <t>BGOG</t>
+  </si>
+  <si>
+    <t>Bigby Presents: Glory of Giants 毕格比巨献：巨人之荣耀</t>
+  </si>
+  <si>
+    <t>印记城与外域</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Sigil and the Outlands 印记城与外域</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3110,31 +5345,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -3150,14 +5363,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3197,6 +5402,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3247,7 +5467,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3267,55 +5508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3333,31 +5532,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3381,6 +5568,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3393,7 +5592,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3417,7 +5640,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3441,6 +5676,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3458,21 +5699,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3505,6 +5731,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3561,148 +5802,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3719,58 +5960,58 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -4074,10 +6315,10 @@
       <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="14.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="20.9083333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.275" customWidth="1"/>
     <col min="3" max="3" width="103.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4526,13 +6767,13 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29.4454545454545" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.8909090909091" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.8916666666667" style="5" customWidth="1"/>
     <col min="3" max="3" width="74" style="5" customWidth="1"/>
     <col min="4" max="16384" width="9" style="5"/>
   </cols>
@@ -4738,15 +6979,15 @@
   <sheetPr/>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29.3363636363636" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="60.3363636363636" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="60.3333333333333" style="5" customWidth="1"/>
     <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -4754,7 +6995,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -4774,765 +7015,917 @@
       <c r="A2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="C19" s="3" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F23" s="4"/>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="F25" s="4"/>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="F26" s="4"/>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="F27" s="4"/>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="F28" s="4"/>
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="F29" s="4"/>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="C30" s="3" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="F30" s="4"/>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>190</v>
+      </c>
       <c r="C31" s="3" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="F31" s="4"/>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="C33" s="3" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="F33" s="4"/>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B34" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="C34" s="3" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="F34" s="4"/>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" s="3"/>
+        <v>201</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>202</v>
+      </c>
       <c r="C35" s="3" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="F35" s="4"/>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="C36" s="3" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B37" s="3"/>
+        <v>207</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="C37" s="3" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="F37" s="4"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B38" s="3"/>
+        <v>210</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>211</v>
+      </c>
       <c r="C38" s="3" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="F38" s="4"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B39" s="3"/>
+        <v>213</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="C39" s="3" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="F39" s="4"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B40" s="3"/>
+        <v>216</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="F40" s="4"/>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B41" s="3"/>
+        <v>219</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="C41" s="3" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="F41" s="4"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B42" s="3"/>
+        <v>222</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="C42" s="3" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="F42" s="4"/>
     </row>
     <row r="43" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B43" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="C43" s="3" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="F43" s="4"/>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44" s="3"/>
+        <v>228</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="C44" s="3" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="F44" s="4"/>
     </row>
     <row r="45" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B45" s="3"/>
+        <v>231</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>232</v>
+      </c>
       <c r="C45" s="3" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="F45" s="4"/>
     </row>
     <row r="46" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B46" s="3"/>
+        <v>234</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="C46" s="3" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="F46" s="4"/>
     </row>
     <row r="47" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B47" s="3"/>
+        <v>237</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="C47" s="3" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="F47" s="4"/>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" s="3"/>
+        <v>240</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>241</v>
+      </c>
       <c r="C48" s="3" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="F48" s="4"/>
     </row>
     <row r="49" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B49" s="3"/>
+        <v>243</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="C49" s="3" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="F49" s="4"/>
     </row>
     <row r="50" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" s="3"/>
+        <v>246</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>247</v>
+      </c>
       <c r="C50" s="3" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="F50" s="4"/>
     </row>
     <row r="51" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B51" s="3"/>
+        <v>249</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>250</v>
+      </c>
       <c r="C51" s="3" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="F51" s="4"/>
     </row>
     <row r="52" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B52" s="3"/>
+        <v>252</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="C52" s="3" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="F52" s="4"/>
     </row>
     <row r="53" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B53" s="3"/>
+        <v>255</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>256</v>
+      </c>
       <c r="C53" s="3" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="F53" s="4"/>
     </row>
     <row r="54" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B54" s="3"/>
+        <v>258</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="C54" s="3" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="F54" s="4"/>
     </row>
     <row r="55" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B55" s="3"/>
+        <v>261</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="C55" s="3" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="F55" s="4"/>
     </row>
     <row r="56" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B56" s="3"/>
+        <v>264</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="C56" s="3" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="F56" s="4"/>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B57" s="3"/>
+        <v>267</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>268</v>
+      </c>
       <c r="C57" s="3" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="F57" s="4"/>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B58" s="3"/>
+        <v>270</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>271</v>
+      </c>
       <c r="C58" s="3" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="F58" s="4"/>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B59" s="3"/>
+        <v>273</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>274</v>
+      </c>
       <c r="C59" s="3" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="F59" s="4"/>
     </row>
     <row r="60" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A60" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B60" s="3"/>
+        <v>276</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="C60" s="3" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="F60" s="4"/>
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B61" s="3"/>
+        <v>279</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>280</v>
+      </c>
       <c r="C61" s="3" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="F61" s="4"/>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B62" s="3"/>
+        <v>282</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>283</v>
+      </c>
       <c r="C62" s="3" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="F62" s="4"/>
     </row>
     <row r="63" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B63" s="3"/>
+        <v>285</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="C63" s="3" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="F63" s="4"/>
     </row>
     <row r="64" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B64" s="3"/>
+        <v>288</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="C64" s="3" t="s">
-        <v>227</v>
+        <v>290</v>
       </c>
       <c r="F64" s="4"/>
     </row>
     <row r="65" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B65" s="3"/>
+        <v>291</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>292</v>
+      </c>
       <c r="C65" s="3" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="F65" s="4"/>
     </row>
     <row r="66" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B66" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>295</v>
+      </c>
       <c r="C66" s="3" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
       <c r="F66" s="4"/>
     </row>
     <row r="67" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B67" s="3"/>
+        <v>297</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>298</v>
+      </c>
       <c r="C67" s="3" t="s">
-        <v>233</v>
+        <v>299</v>
       </c>
       <c r="F67" s="4"/>
     </row>
     <row r="68" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A68" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B68" s="3"/>
+        <v>300</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>301</v>
+      </c>
       <c r="C68" s="3" t="s">
-        <v>235</v>
+        <v>302</v>
       </c>
       <c r="F68" s="4"/>
     </row>
     <row r="69" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B69" s="3"/>
+        <v>303</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>304</v>
+      </c>
       <c r="C69" s="3" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="F69" s="4"/>
     </row>
     <row r="70" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B70" s="3"/>
+        <v>306</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>307</v>
+      </c>
       <c r="C70" s="3" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="F70" s="4"/>
     </row>
     <row r="71" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B71" s="3"/>
+        <v>309</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="C71" s="3" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="F71" s="4"/>
     </row>
     <row r="72" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A72" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B72" s="3"/>
+        <v>312</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="C72" s="3" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="F72" s="4"/>
     </row>
     <row r="73" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A73" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B73" s="3"/>
+        <v>315</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="C73" s="3" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="F73" s="4"/>
     </row>
     <row r="74" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B74" s="3"/>
+        <v>318</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="C74" s="3" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="F74" s="4"/>
     </row>
     <row r="75" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A75" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B75" s="3"/>
+        <v>321</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>322</v>
+      </c>
       <c r="C75" s="3" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="F75" s="4"/>
     </row>
     <row r="76" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A76" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B76" s="3"/>
+        <v>324</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="C76" s="3" t="s">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="F76" s="4"/>
     </row>
     <row r="77" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A77" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B77" s="3"/>
+        <v>327</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="C77" s="3" t="s">
-        <v>253</v>
+        <v>329</v>
       </c>
       <c r="F77" s="4"/>
     </row>
     <row r="78" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="B78" s="6"/>
       <c r="C78" s="3"/>
       <c r="F78" s="4"/>
     </row>
@@ -5547,17 +7940,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="26.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="21.7272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.2181818181818" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.4583333333333" customWidth="1"/>
+    <col min="2" max="2" width="21.725" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.2166666666667" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
@@ -5582,324 +7975,347 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>260</v>
+        <v>336</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>261</v>
+        <v>337</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>263</v>
+        <v>339</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>272</v>
+        <v>348</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>273</v>
+        <v>349</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>274</v>
+        <v>350</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>275</v>
+        <v>351</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>276</v>
+        <v>352</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>281</v>
+        <v>357</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>282</v>
+        <v>358</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>283</v>
+        <v>359</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>284</v>
+        <v>360</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>286</v>
+        <v>362</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>287</v>
+        <v>363</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>288</v>
+        <v>364</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>289</v>
+        <v>365</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>290</v>
+        <v>366</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>291</v>
+        <v>367</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>292</v>
+        <v>368</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>293</v>
+        <v>369</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>299</v>
+        <v>375</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>301</v>
+        <v>377</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>304</v>
+        <v>380</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>306</v>
+        <v>382</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>307</v>
+        <v>383</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>313</v>
+        <v>389</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>314</v>
+        <v>390</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>315</v>
+        <v>391</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>316</v>
+        <v>392</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>317</v>
+        <v>393</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>318</v>
+        <v>394</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>319</v>
+        <v>395</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>320</v>
+        <v>396</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>400</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D24" t="s">
+        <v>343</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
